--- a/DateBase/orders/Fresh bloom Flowers_2025-10-15.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-15.xlsx
@@ -529,6 +529,9 @@
       <c r="C11" t="str">
         <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -590,7 +593,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015196181942320230</v>
+        <v>0151961819423202321</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-15.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -533,9 +533,95 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>5</v>
+      </c>
+      <c r="C12" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>6</v>
+      </c>
+      <c r="C15" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>7</v>
+      </c>
+      <c r="C18" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F18" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -593,7 +679,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151961819423202321</v>
+        <v>015196181942320232115225241410308110</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-15.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,10 +618,99 @@
       <c r="C21" t="str">
         <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>8</v>
+      </c>
+      <c r="C23" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
+      </c>
+      <c r="F26" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>9</v>
+      </c>
+      <c r="C27" t="str">
+        <v>110_绣球单瓣浅蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F27" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F28" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F29" t="str">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>10</v>
+      </c>
+      <c r="C30" t="str">
+        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -679,7 +768,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015196181942320232115225241410308110</v>
+        <v>01519618194232023211522524141030811776632404040115600</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-15.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-15.xlsx
@@ -707,6 +707,9 @@
       <c r="A31" t="str">
         <v>11</v>
       </c>
+      <c r="C31" t="str">
+        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-15.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -710,10 +710,106 @@
       <c r="C31" t="str">
         <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>12</v>
+      </c>
+      <c r="C33" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F33" t="str">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>13</v>
+      </c>
+      <c r="C34" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F34" t="str">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>14</v>
+      </c>
+      <c r="C35" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F35" t="str">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>15</v>
+      </c>
+      <c r="C36" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F36" t="str">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F37" t="str">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>16</v>
+      </c>
+      <c r="C38" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="C39" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -771,7 +867,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01519618194232023211522524141030811776632404040115600</v>
+        <v>015196181942320232115225241410308117766324040401156054208556562355512200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-15.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -806,10 +806,94 @@
       <c r="C41" t="str">
         <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F44" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
+      </c>
+      <c r="F45" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str">
+        <v>17</v>
+      </c>
+      <c r="C46" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F49" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F50" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>118_绣球老绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -867,7 +951,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015196181942320232115225241410308117766324040401156054208556562355512200</v>
+        <v>015196181942320232115225241410308117766324040401156054208556562355512205401242010402515600</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-15.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-15.xlsx
@@ -890,6 +890,9 @@
       <c r="C51" t="str">
         <v>118_绣球老绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
       </c>
+      <c r="F51" t="str">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -951,7 +954,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015196181942320232115225241410308117766324040401156054208556562355512205401242010402515600</v>
+        <v>0151961819423202321152252414103081177663240404011560542085565623555122054012420104025156035</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-15.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -894,9 +894,93 @@
         <v>35</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>18</v>
+      </c>
+      <c r="C52" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>668_大丽花 粉_undefined_undefined_5stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
+      <c r="C57" t="str" xml:space="preserve">
+        <v xml:space="preserve">386_菟葵绿粉 
+green_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>19</v>
+      </c>
+      <c r="C58" t="str">
+        <v>112_绣球青花瓷_Hydrangea Blue&amp;White Porcelain_Hydrangea L._1stem</v>
+      </c>
+      <c r="F58" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F59" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>711_重瓣白百合_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>445_冬青红_ilex_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -954,7 +1038,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151961819423202321152252414103081177663240404011560542085565623555122054012420104025156035</v>
+        <v>01519618194232023211522524141030811776632404040115605420855656235551220540124201040251560352055833153540</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-15.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-15.xlsx
@@ -977,6 +977,9 @@
       <c r="C61" t="str">
         <v>445_冬青红_ilex_undefined_1bunch</v>
       </c>
+      <c r="F61" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1038,7 +1041,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01519618194232023211522524141030811776632404040115605420855656235551220540124201040251560352055833153540</v>
+        <v>01519618194232023211522524141030811776632404040115605420855656235551220540124201040251560352055833153543</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-15.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -981,9 +981,76 @@
         <v>3</v>
       </c>
     </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>397_红绿灵草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>490_米花 粉_rice flower pink_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>44_拉丝粉_Spider Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F64" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>20</v>
+      </c>
+      <c r="C67" t="str">
+        <v>535_雪果白_snow berry white_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L69"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1041,7 +1108,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01519618194232023211522524141030811776632404040115605420855656235551220540124201040251560352055833153543</v>
+        <v>0151961819423202321152252414103081177663240404011560542085565623555122054012420104025156035205583315354310810252551010</v>
       </c>
     </row>
   </sheetData>
